--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2489134.380084136</v>
+        <v>2479468.494886814</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8339344.196504711</v>
+        <v>8340296.364978907</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1551035.928624881</v>
+        <v>1546611.228040752</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9044379.300403241</v>
+        <v>9045380.463333244</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>20.9346168091141</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>7.772547683598775</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.59002526031614</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="C3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.6263639150735023</v>
       </c>
       <c r="I5" t="n">
-        <v>17.76324689814357</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.55470292302859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>27.59002526031614</v>
+        <v>21.81976115797297</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>27.59002526031614</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>7.772547683598768</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.76324689814358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="G9" t="n">
-        <v>23.55470292302859</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.55470292302859</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>94.13829676534569</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.2567673307947</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>48.03104245322859</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>76.5807092459029</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>152.3059062233241</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>152.6250124446328</v>
       </c>
       <c r="Y16" t="n">
-        <v>169.6978734209707</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>136.4901365337015</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>17.25588147840143</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>217.5952114151209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.9951719589016</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>158.5243750422018</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>159.2247172348204</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>7.601081015446814</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>89.56096688104252</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>234.971850626718</v>
       </c>
       <c r="X31" t="n">
-        <v>75.42385309393684</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247554</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>71.49367430371645</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>20.5873944426265</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.9951719589025</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>147.063354596813</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.9951719589025</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>82.00269631765421</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>94.13829676534569</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>339.592622259469</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>37.38100496017385</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>90.09258528573086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>120.6265930620625</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>272.0379723001083</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9.776752044619734</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>185.5150394614169</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.68000263846065</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C2" t="n">
-        <v>36.68000263846065</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D2" t="n">
-        <v>36.68000263846065</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E2" t="n">
-        <v>36.68000263846065</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F2" t="n">
-        <v>29.73450188925718</v>
+        <v>55.45600517878097</v>
       </c>
       <c r="G2" t="n">
-        <v>14.27719126790864</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="H2" t="n">
-        <v>14.27719126790864</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I2" t="n">
-        <v>14.27719126790864</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J2" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L2" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M2" t="n">
-        <v>84.14957704396423</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N2" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O2" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P2" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>72.39977328887976</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>72.39977328887976</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>72.39977328887976</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>64.54871502261837</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>64.54871502261837</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W2" t="n">
-        <v>36.68000263846065</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X2" t="n">
-        <v>36.68000263846065</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.68000263846065</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.49138865710684</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="C3" t="n">
-        <v>54.62267627294912</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="D3" t="n">
-        <v>54.62267627294912</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="E3" t="n">
-        <v>54.62267627294912</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="F3" t="n">
-        <v>54.62267627294912</v>
+        <v>28.6828379631348</v>
       </c>
       <c r="G3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="H3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I3" t="n">
-        <v>2.207202020825291</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J3" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>28.41772601812563</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L3" t="n">
-        <v>28.41772601812563</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M3" t="n">
-        <v>55.73185102583861</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N3" t="n">
-        <v>83.04597603355158</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O3" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P3" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S3" t="n">
-        <v>110.3601010412646</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X3" t="n">
-        <v>110.3601010412646</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.3601010412646</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.207202020825291</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C4" t="n">
-        <v>2.207202020825291</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D4" t="n">
-        <v>2.207202020825291</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E4" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F4" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G4" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H4" t="n">
-        <v>2.207202020825291</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I4" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>84.14957704396423</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S4" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T4" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U4" t="n">
-        <v>85.81333917329844</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V4" t="n">
-        <v>57.94462678914073</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W4" t="n">
-        <v>30.07591440498301</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X4" t="n">
-        <v>2.207202020825291</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.207202020825291</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="C5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="D5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="E5" t="n">
-        <v>54.62267627294912</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="F5" t="n">
-        <v>47.67717552374565</v>
+        <v>40.631385380739</v>
       </c>
       <c r="G5" t="n">
-        <v>32.21986490239711</v>
+        <v>14.75230336596039</v>
       </c>
       <c r="H5" t="n">
-        <v>32.21986490239711</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790864</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>29.52132702853827</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L5" t="n">
-        <v>56.83545203625125</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M5" t="n">
-        <v>84.14957704396423</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N5" t="n">
-        <v>110.3601010412646</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O5" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>92.38954941029624</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="S5" t="n">
-        <v>110.3601010412646</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="T5" t="n">
-        <v>110.3601010412646</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="U5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="V5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="W5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="X5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
       <c r="Y5" t="n">
-        <v>82.49138865710684</v>
+        <v>66.51046739551762</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.62267627294912</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C6" t="n">
-        <v>54.62267627294912</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D6" t="n">
-        <v>30.83004705776872</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E6" t="n">
-        <v>30.83004705776872</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F6" t="n">
-        <v>30.83004705776872</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G6" t="n">
-        <v>30.83004705776872</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H6" t="n">
-        <v>2.961334673611005</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>2.80375594835618</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L6" t="n">
-        <v>28.41772601812563</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M6" t="n">
-        <v>55.73185102583861</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N6" t="n">
-        <v>83.04597603355158</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O6" t="n">
-        <v>110.3601010412646</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P6" t="n">
-        <v>110.3601010412646</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412646</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S6" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T6" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U6" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V6" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W6" t="n">
-        <v>82.49138865710684</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X6" t="n">
-        <v>54.62267627294912</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y6" t="n">
-        <v>54.62267627294912</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.81333917329844</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="C7" t="n">
-        <v>57.94462678914073</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="D7" t="n">
-        <v>57.94462678914073</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="E7" t="n">
-        <v>57.94462678914073</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="F7" t="n">
-        <v>30.07591440498301</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G7" t="n">
-        <v>30.07591440498301</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H7" t="n">
-        <v>30.07591440498301</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I7" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825291</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853827</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625125</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396423</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788635</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="R7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="S7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="T7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="U7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="V7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="W7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="X7" t="n">
-        <v>108.4888536788635</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.81333917329844</v>
+        <v>99.73223474306219</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.68000263846065</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C8" t="n">
-        <v>36.68000263846065</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="D8" t="n">
-        <v>36.68000263846065</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="E8" t="n">
-        <v>36.68000263846065</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="F8" t="n">
-        <v>29.73450188925718</v>
+        <v>37.58556015551856</v>
       </c>
       <c r="G8" t="n">
-        <v>14.27719126790864</v>
+        <v>22.12824953417003</v>
       </c>
       <c r="H8" t="n">
-        <v>14.27719126790864</v>
+        <v>22.12824953417003</v>
       </c>
       <c r="I8" t="n">
         <v>14.27719126790864</v>
@@ -4807,49 +4807,49 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M8" t="n">
         <v>56.83545203625125</v>
       </c>
       <c r="N8" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O8" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P8" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R8" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S8" t="n">
-        <v>82.49138865710684</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T8" t="n">
-        <v>82.49138865710684</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U8" t="n">
-        <v>82.49138865710684</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V8" t="n">
-        <v>54.62267627294912</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W8" t="n">
-        <v>54.62267627294912</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="X8" t="n">
-        <v>54.62267627294912</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.68000263846065</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="C9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="D9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="E9" t="n">
-        <v>82.49138865710684</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F9" t="n">
-        <v>54.62267627294912</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="G9" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="H9" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I9" t="n">
         <v>2.961334673611005</v>
@@ -4886,19 +4886,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L9" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>56.83545203625125</v>
       </c>
-      <c r="M9" t="n">
-        <v>83.04597603355158</v>
-      </c>
       <c r="N9" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P9" t="n">
         <v>110.3601010412646</v>
@@ -4907,28 +4907,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>110.3601010412646</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="S9" t="n">
-        <v>110.3601010412646</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="T9" t="n">
-        <v>110.3601010412646</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="U9" t="n">
-        <v>110.3601010412646</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="V9" t="n">
-        <v>110.3601010412646</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="W9" t="n">
-        <v>110.3601010412646</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="X9" t="n">
-        <v>110.3601010412646</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.3601010412646</v>
+        <v>30.83004705776872</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C10" t="n">
-        <v>2.207202020825291</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D10" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E10" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F10" t="n">
         <v>2.207202020825291</v>
@@ -4995,19 +4995,19 @@
         <v>105.7399236434024</v>
       </c>
       <c r="U10" t="n">
-        <v>77.87121125924466</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="V10" t="n">
-        <v>77.87121125924466</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="W10" t="n">
-        <v>57.94462678914073</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="X10" t="n">
-        <v>30.07591440498301</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.207202020825291</v>
+        <v>105.7399236434024</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1585.6792398185</v>
+        <v>2015.464932170197</v>
       </c>
       <c r="C11" t="n">
-        <v>1216.716722878089</v>
+        <v>1646.502415229785</v>
       </c>
       <c r="D11" t="n">
-        <v>1216.716722878089</v>
+        <v>1288.236716623035</v>
       </c>
       <c r="E11" t="n">
-        <v>830.9284702798445</v>
+        <v>902.4484640247904</v>
       </c>
       <c r="F11" t="n">
-        <v>830.9284702798445</v>
+        <v>491.4625592351829</v>
       </c>
       <c r="G11" t="n">
-        <v>415.8560201248409</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="H11" t="n">
-        <v>118.2724197336082</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="I11" t="n">
-        <v>76.27552097307689</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J11" t="n">
-        <v>265.1546519321024</v>
+        <v>265.2692400392048</v>
       </c>
       <c r="K11" t="n">
-        <v>598.9740256219488</v>
+        <v>669.6256510759051</v>
       </c>
       <c r="L11" t="n">
-        <v>1086.363626249767</v>
+        <v>1534.14446672926</v>
       </c>
       <c r="M11" t="n">
-        <v>1619.895530921692</v>
+        <v>2067.676371401184</v>
       </c>
       <c r="N11" t="n">
-        <v>2166.674347980474</v>
+        <v>2614.455188459967</v>
       </c>
       <c r="O11" t="n">
-        <v>3046.638998309929</v>
+        <v>3117.427659339304</v>
       </c>
       <c r="P11" t="n">
-        <v>3441.413364667107</v>
+        <v>3512.202025696482</v>
       </c>
       <c r="Q11" t="n">
-        <v>3689.699726422789</v>
+        <v>3760.488387452164</v>
       </c>
       <c r="R11" t="n">
-        <v>3813.776048653845</v>
+        <v>3819.505454008967</v>
       </c>
       <c r="S11" t="n">
-        <v>3703.48538018094</v>
+        <v>3819.505454008967</v>
       </c>
       <c r="T11" t="n">
-        <v>3497.507632565162</v>
+        <v>3613.527706393189</v>
       </c>
       <c r="U11" t="n">
-        <v>3243.977155838998</v>
+        <v>3518.438517741325</v>
       </c>
       <c r="V11" t="n">
-        <v>2912.914268495427</v>
+        <v>3518.438517741325</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.145613225313</v>
+        <v>3165.66986247121</v>
       </c>
       <c r="X11" t="n">
-        <v>2186.679854964233</v>
+        <v>2792.20410421013</v>
       </c>
       <c r="Y11" t="n">
-        <v>1972.279079882622</v>
+        <v>2402.064772234319</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>951.3072590220013</v>
+        <v>951.4218471291038</v>
       </c>
       <c r="C12" t="n">
-        <v>776.8542297408743</v>
+        <v>776.9688178479768</v>
       </c>
       <c r="D12" t="n">
-        <v>627.9198200796232</v>
+        <v>628.0344081867256</v>
       </c>
       <c r="E12" t="n">
-        <v>468.6823650741676</v>
+        <v>468.7969531812701</v>
       </c>
       <c r="F12" t="n">
-        <v>322.1478071010526</v>
+        <v>322.2623952081551</v>
       </c>
       <c r="G12" t="n">
-        <v>185.7847069336715</v>
+        <v>185.8992950407736</v>
       </c>
       <c r="H12" t="n">
-        <v>95.2828125715389</v>
+        <v>95.39740067864113</v>
       </c>
       <c r="I12" t="n">
-        <v>76.27552097307691</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J12" t="n">
-        <v>169.9527904636945</v>
+        <v>170.0673785707966</v>
       </c>
       <c r="K12" t="n">
-        <v>408.2169894440415</v>
+        <v>408.3315775511437</v>
       </c>
       <c r="L12" t="n">
-        <v>774.9151497567066</v>
+        <v>775.0297378638091</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.191474979022</v>
+        <v>1222.306063086125</v>
       </c>
       <c r="N12" t="n">
-        <v>1695.714518533477</v>
+        <v>1695.82910664058</v>
       </c>
       <c r="O12" t="n">
-        <v>2106.675797951531</v>
+        <v>2106.790386058634</v>
       </c>
       <c r="P12" t="n">
-        <v>2417.175389427634</v>
+        <v>2417.289977534737</v>
       </c>
       <c r="Q12" t="n">
-        <v>2574.816947074234</v>
+        <v>2574.931535181337</v>
       </c>
       <c r="R12" t="n">
-        <v>2574.672593666749</v>
+        <v>2574.787181773852</v>
       </c>
       <c r="S12" t="n">
-        <v>2445.234707160229</v>
+        <v>2445.349295267332</v>
       </c>
       <c r="T12" t="n">
-        <v>2252.591706838085</v>
+        <v>2252.706294945187</v>
       </c>
       <c r="U12" t="n">
-        <v>2024.523859972501</v>
+        <v>2024.638448079603</v>
       </c>
       <c r="V12" t="n">
-        <v>1789.371751740758</v>
+        <v>1789.48633984786</v>
       </c>
       <c r="W12" t="n">
-        <v>1535.134395012556</v>
+        <v>1535.248983119659</v>
       </c>
       <c r="X12" t="n">
-        <v>1327.282894807023</v>
+        <v>1327.397482914126</v>
       </c>
       <c r="Y12" t="n">
-        <v>1119.522596042069</v>
+        <v>1119.637184149172</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.9220058358229</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="C13" t="n">
-        <v>418.9220058358229</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="D13" t="n">
-        <v>418.9220058358229</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="E13" t="n">
-        <v>271.0089122534298</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="F13" t="n">
-        <v>222.4927077552191</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="G13" t="n">
-        <v>222.4927077552191</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="H13" t="n">
-        <v>76.27552097307689</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="I13" t="n">
-        <v>76.27552097307689</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J13" t="n">
-        <v>121.3981534200124</v>
+        <v>121.5127415271149</v>
       </c>
       <c r="K13" t="n">
-        <v>325.3853363688888</v>
+        <v>325.4999244759913</v>
       </c>
       <c r="L13" t="n">
-        <v>641.945134817385</v>
+        <v>642.0597229244875</v>
       </c>
       <c r="M13" t="n">
-        <v>986.1021804169341</v>
+        <v>986.2167685240365</v>
       </c>
       <c r="N13" t="n">
-        <v>1327.510557122799</v>
+        <v>1327.625145229901</v>
       </c>
       <c r="O13" t="n">
-        <v>1626.840156043212</v>
+        <v>1626.954744150315</v>
       </c>
       <c r="P13" t="n">
-        <v>1859.447656476872</v>
+        <v>1859.562244583974</v>
       </c>
       <c r="Q13" t="n">
-        <v>1937.057952629386</v>
+        <v>1937.172540736489</v>
       </c>
       <c r="R13" t="n">
-        <v>1847.227495386914</v>
+        <v>1937.172540736489</v>
       </c>
       <c r="S13" t="n">
-        <v>1655.541611213741</v>
+        <v>1761.791844499644</v>
       </c>
       <c r="T13" t="n">
-        <v>1433.774995783267</v>
+        <v>1540.025229069171</v>
       </c>
       <c r="U13" t="n">
-        <v>1144.67212890891</v>
+        <v>1250.922362194814</v>
       </c>
       <c r="V13" t="n">
-        <v>889.9876407030232</v>
+        <v>996.237873988927</v>
       </c>
       <c r="W13" t="n">
-        <v>600.5704706660626</v>
+        <v>706.8207039519665</v>
       </c>
       <c r="X13" t="n">
-        <v>600.5704706660626</v>
+        <v>478.8311530539492</v>
       </c>
       <c r="Y13" t="n">
-        <v>600.5704706660626</v>
+        <v>258.038573910419</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1629.56209146485</v>
+        <v>2313.04853256143</v>
       </c>
       <c r="C14" t="n">
-        <v>1260.599574524438</v>
+        <v>1944.086015621018</v>
       </c>
       <c r="D14" t="n">
-        <v>902.3338759176879</v>
+        <v>1585.820317014267</v>
       </c>
       <c r="E14" t="n">
-        <v>902.3338759176879</v>
+        <v>1200.032064416023</v>
       </c>
       <c r="F14" t="n">
-        <v>491.3479711280804</v>
+        <v>789.0461596264156</v>
       </c>
       <c r="G14" t="n">
-        <v>76.27552097307689</v>
+        <v>373.9737094714121</v>
       </c>
       <c r="H14" t="n">
-        <v>76.27552097307689</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="I14" t="n">
-        <v>76.27552097307689</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J14" t="n">
-        <v>265.1546519321024</v>
+        <v>265.2692400392048</v>
       </c>
       <c r="K14" t="n">
-        <v>919.8779840674019</v>
+        <v>919.9925721745042</v>
       </c>
       <c r="L14" t="n">
-        <v>1370.912197315811</v>
+        <v>1371.026785422913</v>
       </c>
       <c r="M14" t="n">
-        <v>1904.444101987735</v>
+        <v>1904.558690094837</v>
       </c>
       <c r="N14" t="n">
-        <v>2451.222919046518</v>
+        <v>2451.337507153619</v>
       </c>
       <c r="O14" t="n">
-        <v>3046.638998309929</v>
+        <v>2954.309978032956</v>
       </c>
       <c r="P14" t="n">
-        <v>3441.413364667107</v>
+        <v>3512.202025696482</v>
       </c>
       <c r="Q14" t="n">
-        <v>3689.699726422789</v>
+        <v>3760.488387452164</v>
       </c>
       <c r="R14" t="n">
-        <v>3813.776048653845</v>
+        <v>3819.505454008967</v>
       </c>
       <c r="S14" t="n">
-        <v>3703.48538018094</v>
+        <v>3709.214785536062</v>
       </c>
       <c r="T14" t="n">
-        <v>3497.507632565162</v>
+        <v>3503.237037920284</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.977155838998</v>
+        <v>3503.237037920284</v>
       </c>
       <c r="V14" t="n">
-        <v>2912.914268495427</v>
+        <v>3425.882786156746</v>
       </c>
       <c r="W14" t="n">
-        <v>2560.145613225313</v>
+        <v>3073.114130886631</v>
       </c>
       <c r="X14" t="n">
-        <v>2406.301263504783</v>
+        <v>2699.648372625551</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.161931528972</v>
+        <v>2699.648372625551</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2190.266360601612</v>
+        <v>951.4218471291045</v>
       </c>
       <c r="C15" t="n">
-        <v>2015.813331320485</v>
+        <v>776.9688178479776</v>
       </c>
       <c r="D15" t="n">
-        <v>1866.878921659234</v>
+        <v>628.0344081867263</v>
       </c>
       <c r="E15" t="n">
-        <v>1707.641466653778</v>
+        <v>468.7969531812709</v>
       </c>
       <c r="F15" t="n">
-        <v>1561.106908680663</v>
+        <v>322.2623952081558</v>
       </c>
       <c r="G15" t="n">
-        <v>1424.743808513282</v>
+        <v>185.8992950407739</v>
       </c>
       <c r="H15" t="n">
-        <v>1334.241914151149</v>
+        <v>95.39740067864142</v>
       </c>
       <c r="I15" t="n">
-        <v>1315.234622552686</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J15" t="n">
-        <v>1408.911892043304</v>
+        <v>170.0673785707966</v>
       </c>
       <c r="K15" t="n">
-        <v>1647.176091023651</v>
+        <v>408.3315775511437</v>
       </c>
       <c r="L15" t="n">
-        <v>2013.874251336316</v>
+        <v>775.029737863809</v>
       </c>
       <c r="M15" t="n">
-        <v>2461.150576558632</v>
+        <v>1222.306063086125</v>
       </c>
       <c r="N15" t="n">
-        <v>2934.673620113087</v>
+        <v>1695.829106640579</v>
       </c>
       <c r="O15" t="n">
-        <v>3345.634899531141</v>
+        <v>2106.790386058634</v>
       </c>
       <c r="P15" t="n">
-        <v>3656.134491007245</v>
+        <v>2417.289977534737</v>
       </c>
       <c r="Q15" t="n">
-        <v>3813.776048653845</v>
+        <v>2574.931535181337</v>
       </c>
       <c r="R15" t="n">
-        <v>3813.63169524636</v>
+        <v>2574.787181773852</v>
       </c>
       <c r="S15" t="n">
-        <v>3684.19380873984</v>
+        <v>2445.349295267332</v>
       </c>
       <c r="T15" t="n">
-        <v>3491.550808417695</v>
+        <v>2252.706294945188</v>
       </c>
       <c r="U15" t="n">
-        <v>3263.482961552111</v>
+        <v>2024.638448079603</v>
       </c>
       <c r="V15" t="n">
-        <v>3028.330853320369</v>
+        <v>1789.486339847861</v>
       </c>
       <c r="W15" t="n">
-        <v>2774.093496592167</v>
+        <v>1535.248983119659</v>
       </c>
       <c r="X15" t="n">
-        <v>2566.241996386634</v>
+        <v>1327.397482914126</v>
       </c>
       <c r="Y15" t="n">
-        <v>2358.48169762168</v>
+        <v>1119.637184149173</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>614.6214260171772</v>
+        <v>836.4631592828677</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6214260171772</v>
+        <v>667.5269763549608</v>
       </c>
       <c r="D16" t="n">
-        <v>614.6214260171772</v>
+        <v>517.410336942625</v>
       </c>
       <c r="E16" t="n">
-        <v>466.7083324347841</v>
+        <v>369.4972433602319</v>
       </c>
       <c r="F16" t="n">
-        <v>319.8183849368738</v>
+        <v>222.6072958623216</v>
       </c>
       <c r="G16" t="n">
-        <v>319.8183849368738</v>
+        <v>222.6072958623216</v>
       </c>
       <c r="H16" t="n">
-        <v>173.6011981547315</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="I16" t="n">
-        <v>76.27552097307689</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J16" t="n">
-        <v>121.3981534200124</v>
+        <v>121.5127415271149</v>
       </c>
       <c r="K16" t="n">
-        <v>325.3853363688888</v>
+        <v>325.4999244759912</v>
       </c>
       <c r="L16" t="n">
-        <v>641.945134817385</v>
+        <v>642.0597229244872</v>
       </c>
       <c r="M16" t="n">
-        <v>986.1021804169341</v>
+        <v>986.2167685240362</v>
       </c>
       <c r="N16" t="n">
-        <v>1327.510557122799</v>
+        <v>1327.625145229901</v>
       </c>
       <c r="O16" t="n">
-        <v>1626.840156043212</v>
+        <v>1626.954744150314</v>
       </c>
       <c r="P16" t="n">
-        <v>1859.447656476872</v>
+        <v>1859.562244583973</v>
       </c>
       <c r="Q16" t="n">
-        <v>1937.057952629386</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="R16" t="n">
-        <v>1847.227495386914</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="S16" t="n">
-        <v>1847.227495386914</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="T16" t="n">
-        <v>1847.227495386914</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="U16" t="n">
-        <v>1558.124628512558</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="V16" t="n">
-        <v>1303.440140306671</v>
+        <v>1682.488052530601</v>
       </c>
       <c r="W16" t="n">
-        <v>1014.02297026971</v>
+        <v>1393.07088249364</v>
       </c>
       <c r="X16" t="n">
-        <v>786.0334193716931</v>
+        <v>1238.904203256637</v>
       </c>
       <c r="Y16" t="n">
-        <v>614.6214260171772</v>
+        <v>1018.111624113107</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3819.938960973981</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5548,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5612,10 +5612,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>876.4469737784534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>707.5107908505465</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1644.746393431757</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.746393431757</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.87756865024</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X19" t="n">
-        <v>1278.888017752223</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.095438608693</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="20">
@@ -5734,55 +5734,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3944.053400686432</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5828,7 +5828,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390117</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>489.8932985402952</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C22" t="n">
-        <v>489.8932985402952</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D22" t="n">
-        <v>339.7766591279594</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
@@ -5952,10 +5952,10 @@
         <v>709.6864413838516</v>
       </c>
       <c r="X22" t="n">
-        <v>489.8932985402952</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y22" t="n">
-        <v>489.8932985402952</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551631</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001596</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
@@ -6086,7 +6086,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>657.5961351655762</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C25" t="n">
-        <v>657.5961351655762</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D25" t="n">
-        <v>507.4794957532405</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1706.387377506472</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.657581931529</v>
+        <v>1484.620762075998</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057173</v>
+        <v>1195.517895201641</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851286</v>
+        <v>940.8334069957543</v>
       </c>
       <c r="W25" t="n">
-        <v>1220.870226851286</v>
+        <v>651.4162369587937</v>
       </c>
       <c r="X25" t="n">
-        <v>1060.037179139346</v>
+        <v>423.4266860607763</v>
       </c>
       <c r="Y25" t="n">
-        <v>839.244599995816</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,52 +6226,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>845.0839474760701</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L26" t="n">
-        <v>1296.118160724479</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M26" t="n">
-        <v>2274.668463554307</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.420735780954</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6308,7 +6308,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142067</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>655.9531749224913</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C28" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D28" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E28" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
         <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1355.008360687709</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1065.591190650748</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X28" t="n">
-        <v>837.601639752731</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y28" t="n">
-        <v>837.601639752731</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="29">
@@ -6454,34 +6454,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>811.5584875547761</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1676.077303208131</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2209.609207880055</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3189.361480106701</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>3692.333950986038</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6563,31 +6563,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.5107908505465</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C31" t="n">
-        <v>707.5107908505465</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>557.3941514382108</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057173</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V31" t="n">
-        <v>1475.554715057173</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W31" t="n">
-        <v>1186.137545020212</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X31" t="n">
-        <v>1109.951834824316</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.1592556807863</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3008.107474639231</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>3888.072124968686</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3666.832376500404</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C34" t="n">
-        <v>3497.896193572497</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D34" t="n">
-        <v>3497.896193572497</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>3349.983099990104</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>3203.093152492193</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>3035.390315866912</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246547</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>4586.365838246547</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4297.262971372191</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4297.262971372191</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>4297.262971372191</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>4069.273420474174</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>3848.480841330644</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6943,22 +6943,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1296.118160724479</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2274.668463554308</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.420735780954</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279159</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3065.818133790497</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699244</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>3985.665898699244</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>3696.248728662284</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>3468.259177764266</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3247.466598620736</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M38" t="n">
-        <v>2782.232616025902</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870723</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.97392775006</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390117</v>
@@ -7277,28 +7277,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.3484516202159</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>619.412268692309</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1190.789495593986</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1190.789495593986</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>969.9969164504556</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1646.361338034018</v>
+        <v>2015.464932170197</v>
       </c>
       <c r="C41" t="n">
-        <v>1277.398821093606</v>
+        <v>1646.502415229785</v>
       </c>
       <c r="D41" t="n">
-        <v>919.1331224868559</v>
+        <v>1288.236716623035</v>
       </c>
       <c r="E41" t="n">
-        <v>533.3448698886117</v>
+        <v>902.4484640247904</v>
       </c>
       <c r="F41" t="n">
-        <v>533.3448698886117</v>
+        <v>491.4625592351829</v>
       </c>
       <c r="G41" t="n">
-        <v>118.2724197336082</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="H41" t="n">
-        <v>118.2724197336082</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="I41" t="n">
-        <v>76.27552097307691</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J41" t="n">
-        <v>265.1546519321023</v>
+        <v>432.6748890595578</v>
       </c>
       <c r="K41" t="n">
-        <v>598.9740256219486</v>
+        <v>1083.110253480852</v>
       </c>
       <c r="L41" t="n">
-        <v>1050.008238870357</v>
+        <v>1534.144466729261</v>
       </c>
       <c r="M41" t="n">
-        <v>1599.756955388767</v>
+        <v>2067.676371401185</v>
       </c>
       <c r="N41" t="n">
-        <v>2543.666527430593</v>
+        <v>2614.455188459967</v>
       </c>
       <c r="O41" t="n">
-        <v>3046.63899830993</v>
+        <v>3117.427659339304</v>
       </c>
       <c r="P41" t="n">
-        <v>3441.413364667108</v>
+        <v>3512.202025696482</v>
       </c>
       <c r="Q41" t="n">
-        <v>3689.69972642279</v>
+        <v>3760.488387452164</v>
       </c>
       <c r="R41" t="n">
-        <v>3813.776048653845</v>
+        <v>3819.505454008967</v>
       </c>
       <c r="S41" t="n">
-        <v>3703.48538018094</v>
+        <v>3819.505454008967</v>
       </c>
       <c r="T41" t="n">
-        <v>3703.48538018094</v>
+        <v>3613.527706393189</v>
       </c>
       <c r="U41" t="n">
-        <v>3449.954903454777</v>
+        <v>3613.527706393189</v>
       </c>
       <c r="V41" t="n">
-        <v>3118.892016111206</v>
+        <v>3518.438517741325</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.123360841092</v>
+        <v>3165.66986247121</v>
       </c>
       <c r="X41" t="n">
-        <v>2423.100510073951</v>
+        <v>2792.20410421013</v>
       </c>
       <c r="Y41" t="n">
-        <v>2032.96117809814</v>
+        <v>2402.064772234319</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>951.3072590220021</v>
+        <v>951.4218471291045</v>
       </c>
       <c r="C42" t="n">
-        <v>776.8542297408751</v>
+        <v>776.9688178479776</v>
       </c>
       <c r="D42" t="n">
-        <v>627.9198200796238</v>
+        <v>628.0344081867263</v>
       </c>
       <c r="E42" t="n">
-        <v>468.6823650741684</v>
+        <v>468.7969531812709</v>
       </c>
       <c r="F42" t="n">
-        <v>322.1478071010534</v>
+        <v>322.2623952081558</v>
       </c>
       <c r="G42" t="n">
-        <v>185.7847069336715</v>
+        <v>185.8992950407739</v>
       </c>
       <c r="H42" t="n">
-        <v>95.28281257153898</v>
+        <v>95.39740067864142</v>
       </c>
       <c r="I42" t="n">
-        <v>76.27552097307691</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J42" t="n">
-        <v>169.9527904636951</v>
+        <v>170.0673785707966</v>
       </c>
       <c r="K42" t="n">
-        <v>408.2169894440422</v>
+        <v>408.3315775511437</v>
       </c>
       <c r="L42" t="n">
-        <v>774.9151497567075</v>
+        <v>775.029737863809</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.191474979023</v>
+        <v>1222.306063086125</v>
       </c>
       <c r="N42" t="n">
-        <v>1695.714518533478</v>
+        <v>1695.829106640579</v>
       </c>
       <c r="O42" t="n">
-        <v>2106.675797951532</v>
+        <v>2106.790386058634</v>
       </c>
       <c r="P42" t="n">
-        <v>2417.175389427635</v>
+        <v>2417.289977534737</v>
       </c>
       <c r="Q42" t="n">
-        <v>2574.816947074235</v>
+        <v>2574.931535181337</v>
       </c>
       <c r="R42" t="n">
-        <v>2574.67259366675</v>
+        <v>2574.787181773852</v>
       </c>
       <c r="S42" t="n">
-        <v>2445.23470716023</v>
+        <v>2445.349295267332</v>
       </c>
       <c r="T42" t="n">
-        <v>2252.591706838085</v>
+        <v>2252.706294945188</v>
       </c>
       <c r="U42" t="n">
-        <v>2024.523859972501</v>
+        <v>2024.638448079603</v>
       </c>
       <c r="V42" t="n">
-        <v>1789.371751740758</v>
+        <v>1789.486339847861</v>
       </c>
       <c r="W42" t="n">
-        <v>1535.134395012557</v>
+        <v>1535.248983119659</v>
       </c>
       <c r="X42" t="n">
-        <v>1327.282894807024</v>
+        <v>1327.397482914126</v>
       </c>
       <c r="Y42" t="n">
-        <v>1119.52259604207</v>
+        <v>1119.637184149173</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3704980724549</v>
+        <v>244.0929457054604</v>
       </c>
       <c r="C43" t="n">
-        <v>635.434315144548</v>
+        <v>244.0929457054604</v>
       </c>
       <c r="D43" t="n">
-        <v>635.434315144548</v>
+        <v>244.0929457054604</v>
       </c>
       <c r="E43" t="n">
-        <v>487.5212215621549</v>
+        <v>244.0929457054604</v>
       </c>
       <c r="F43" t="n">
-        <v>487.5212215621549</v>
+        <v>244.0929457054604</v>
       </c>
       <c r="G43" t="n">
-        <v>319.8183849368738</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="H43" t="n">
-        <v>173.6011981547316</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="I43" t="n">
-        <v>76.27552097307691</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J43" t="n">
-        <v>121.3981534200124</v>
+        <v>121.5127415271149</v>
       </c>
       <c r="K43" t="n">
-        <v>325.3853363688888</v>
+        <v>325.4999244759912</v>
       </c>
       <c r="L43" t="n">
-        <v>641.9451348173849</v>
+        <v>642.0597229244872</v>
       </c>
       <c r="M43" t="n">
-        <v>986.1021804169338</v>
+        <v>986.2167685240362</v>
       </c>
       <c r="N43" t="n">
-        <v>1327.510557122798</v>
+        <v>1327.625145229901</v>
       </c>
       <c r="O43" t="n">
-        <v>1626.840156043212</v>
+        <v>1626.954744150314</v>
       </c>
       <c r="P43" t="n">
-        <v>1859.447656476871</v>
+        <v>1859.562244583973</v>
       </c>
       <c r="Q43" t="n">
-        <v>1937.057952629385</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="R43" t="n">
-        <v>1847.227495386913</v>
+        <v>1899.413949867625</v>
       </c>
       <c r="S43" t="n">
-        <v>1655.54161121374</v>
+        <v>1707.728065694452</v>
       </c>
       <c r="T43" t="n">
-        <v>1655.54161121374</v>
+        <v>1707.728065694452</v>
       </c>
       <c r="U43" t="n">
-        <v>1366.438744339383</v>
+        <v>1418.625198820095</v>
       </c>
       <c r="V43" t="n">
-        <v>1366.438744339383</v>
+        <v>1163.940710614208</v>
       </c>
       <c r="W43" t="n">
-        <v>1077.021574302423</v>
+        <v>874.5235405772476</v>
       </c>
       <c r="X43" t="n">
-        <v>986.0189629026946</v>
+        <v>646.5339896792302</v>
       </c>
       <c r="Y43" t="n">
-        <v>986.0189629026946</v>
+        <v>425.7414105357001</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1409.940682924301</v>
+        <v>1875.178312621363</v>
       </c>
       <c r="C44" t="n">
-        <v>1040.978165983889</v>
+        <v>1506.215795680952</v>
       </c>
       <c r="D44" t="n">
-        <v>1040.978165983889</v>
+        <v>1147.950097074201</v>
       </c>
       <c r="E44" t="n">
-        <v>655.1899133856446</v>
+        <v>762.161844475957</v>
       </c>
       <c r="F44" t="n">
-        <v>533.3448698886117</v>
+        <v>351.1759396863494</v>
       </c>
       <c r="G44" t="n">
-        <v>118.2724197336082</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="H44" t="n">
-        <v>118.2724197336082</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="I44" t="n">
-        <v>76.27552097307691</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J44" t="n">
-        <v>265.1546519321023</v>
+        <v>265.2692400392048</v>
       </c>
       <c r="K44" t="n">
-        <v>598.9740256219486</v>
+        <v>599.0886137290511</v>
       </c>
       <c r="L44" t="n">
-        <v>1131.284306391095</v>
+        <v>1050.12282697746</v>
       </c>
       <c r="M44" t="n">
-        <v>1664.816211063019</v>
+        <v>1669.127588592748</v>
       </c>
       <c r="N44" t="n">
-        <v>2608.725783104846</v>
+        <v>2614.455188459967</v>
       </c>
       <c r="O44" t="n">
-        <v>3111.698253984183</v>
+        <v>3117.427659339304</v>
       </c>
       <c r="P44" t="n">
-        <v>3506.472620341361</v>
+        <v>3512.202025696482</v>
       </c>
       <c r="Q44" t="n">
-        <v>3754.758982097043</v>
+        <v>3760.488387452164</v>
       </c>
       <c r="R44" t="n">
-        <v>3813.776048653845</v>
+        <v>3819.505454008967</v>
       </c>
       <c r="S44" t="n">
-        <v>3703.48538018094</v>
+        <v>3709.214785536062</v>
       </c>
       <c r="T44" t="n">
-        <v>3497.507632565163</v>
+        <v>3709.214785536062</v>
       </c>
       <c r="U44" t="n">
-        <v>3243.977155838999</v>
+        <v>3709.214785536062</v>
       </c>
       <c r="V44" t="n">
-        <v>2912.914268495428</v>
+        <v>3378.151898192491</v>
       </c>
       <c r="W44" t="n">
-        <v>2560.145613225314</v>
+        <v>3025.383242922377</v>
       </c>
       <c r="X44" t="n">
-        <v>2186.679854964234</v>
+        <v>2651.917484661297</v>
       </c>
       <c r="Y44" t="n">
-        <v>1796.540522988422</v>
+        <v>2261.778152685485</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>951.3072590220021</v>
+        <v>951.4218471291045</v>
       </c>
       <c r="C45" t="n">
-        <v>776.8542297408751</v>
+        <v>776.9688178479776</v>
       </c>
       <c r="D45" t="n">
-        <v>627.9198200796238</v>
+        <v>628.0344081867263</v>
       </c>
       <c r="E45" t="n">
-        <v>468.6823650741684</v>
+        <v>468.7969531812709</v>
       </c>
       <c r="F45" t="n">
-        <v>322.1478071010534</v>
+        <v>322.2623952081558</v>
       </c>
       <c r="G45" t="n">
-        <v>185.7847069336715</v>
+        <v>185.8992950407739</v>
       </c>
       <c r="H45" t="n">
-        <v>95.28281257153898</v>
+        <v>95.39740067864142</v>
       </c>
       <c r="I45" t="n">
-        <v>76.27552097307691</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J45" t="n">
-        <v>169.9527904636942</v>
+        <v>170.0673785707966</v>
       </c>
       <c r="K45" t="n">
-        <v>408.2169894440412</v>
+        <v>408.3315775511437</v>
       </c>
       <c r="L45" t="n">
-        <v>774.9151497567066</v>
+        <v>775.029737863809</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.191474979022</v>
+        <v>1222.306063086125</v>
       </c>
       <c r="N45" t="n">
-        <v>1695.714518533477</v>
+        <v>1695.829106640579</v>
       </c>
       <c r="O45" t="n">
-        <v>2106.675797951531</v>
+        <v>2106.790386058634</v>
       </c>
       <c r="P45" t="n">
-        <v>2417.175389427635</v>
+        <v>2417.289977534737</v>
       </c>
       <c r="Q45" t="n">
-        <v>2574.816947074235</v>
+        <v>2574.931535181337</v>
       </c>
       <c r="R45" t="n">
-        <v>2574.67259366675</v>
+        <v>2574.787181773852</v>
       </c>
       <c r="S45" t="n">
-        <v>2445.23470716023</v>
+        <v>2445.349295267332</v>
       </c>
       <c r="T45" t="n">
-        <v>2252.591706838085</v>
+        <v>2252.706294945188</v>
       </c>
       <c r="U45" t="n">
-        <v>2024.523859972501</v>
+        <v>2024.638448079603</v>
       </c>
       <c r="V45" t="n">
-        <v>1789.371751740758</v>
+        <v>1789.486339847861</v>
       </c>
       <c r="W45" t="n">
-        <v>1535.134395012557</v>
+        <v>1535.248983119659</v>
       </c>
       <c r="X45" t="n">
-        <v>1327.282894807024</v>
+        <v>1327.397482914126</v>
       </c>
       <c r="Y45" t="n">
-        <v>1119.52259604207</v>
+        <v>1119.637184149173</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2379.247623635211</v>
+        <v>466.8229205418866</v>
       </c>
       <c r="C46" t="n">
-        <v>2210.311440707304</v>
+        <v>466.8229205418866</v>
       </c>
       <c r="D46" t="n">
-        <v>2060.194801294968</v>
+        <v>466.8229205418866</v>
       </c>
       <c r="E46" t="n">
-        <v>2060.194801294968</v>
+        <v>466.8229205418866</v>
       </c>
       <c r="F46" t="n">
-        <v>2060.194801294968</v>
+        <v>319.9329730439762</v>
       </c>
       <c r="G46" t="n">
-        <v>2060.194801294968</v>
+        <v>319.9329730439762</v>
       </c>
       <c r="H46" t="n">
-        <v>2050.319294179191</v>
+        <v>173.715786261834</v>
       </c>
       <c r="I46" t="n">
-        <v>1952.993616997536</v>
+        <v>76.39010908017934</v>
       </c>
       <c r="J46" t="n">
-        <v>1998.116249444472</v>
+        <v>121.5127415271149</v>
       </c>
       <c r="K46" t="n">
-        <v>2202.103432393348</v>
+        <v>325.4999244759912</v>
       </c>
       <c r="L46" t="n">
-        <v>2518.663230841844</v>
+        <v>642.0597229244872</v>
       </c>
       <c r="M46" t="n">
-        <v>2862.820276441393</v>
+        <v>986.2167685240362</v>
       </c>
       <c r="N46" t="n">
-        <v>3204.228653147258</v>
+        <v>1327.625145229901</v>
       </c>
       <c r="O46" t="n">
-        <v>3503.558252067671</v>
+        <v>1626.954744150314</v>
       </c>
       <c r="P46" t="n">
-        <v>3736.165752501331</v>
+        <v>1859.562244583973</v>
       </c>
       <c r="Q46" t="n">
-        <v>3813.776048653845</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="R46" t="n">
-        <v>3813.776048653845</v>
+        <v>1937.172540736488</v>
       </c>
       <c r="S46" t="n">
-        <v>3622.090164480672</v>
+        <v>1749.783611987582</v>
       </c>
       <c r="T46" t="n">
-        <v>3622.090164480672</v>
+        <v>1528.016996557108</v>
       </c>
       <c r="U46" t="n">
-        <v>3332.987297606315</v>
+        <v>1238.914129682752</v>
       </c>
       <c r="V46" t="n">
-        <v>3078.302809400428</v>
+        <v>984.2296414768646</v>
       </c>
       <c r="W46" t="n">
-        <v>2788.885639363468</v>
+        <v>694.8124714399039</v>
       </c>
       <c r="X46" t="n">
-        <v>2560.896088465451</v>
+        <v>466.8229205418866</v>
       </c>
       <c r="Y46" t="n">
-        <v>2560.896088465451</v>
+        <v>466.8229205418866</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>247.6798763052967</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N2" t="n">
-        <v>255.8883403615407</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>164.3167157393088</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M3" t="n">
-        <v>169.7240591823345</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N3" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>166.5158092079212</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>155.2755697255493</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875889</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N5" t="n">
-        <v>255.8883403615407</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L6" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9317373436494</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079212</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255493</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
         <v>263.3564402303034</v>
       </c>
       <c r="M8" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O8" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M9" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P9" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>71.24953267358978</v>
       </c>
       <c r="L11" t="n">
-        <v>36.72261351455495</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>93.37738220613551</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>164.7653346528767</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
-        <v>258.6211785616943</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>133.2530576400267</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>29.618822257921</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>411.0304280899007</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>229.1155640189937</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>195.2514630883938</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564223</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>189.7998007892651</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.907807245515869e-12</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>229.1155640189945</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10600,16 +10600,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>246.454569480847</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>319.8141320519678</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>16.38061802675259</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>401.1421767505501</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>82.09703789973508</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>86.3362191347112</v>
       </c>
       <c r="N44" t="n">
-        <v>401.1421767505501</v>
+        <v>402.5745280893304</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>156.8568751935563</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9811713252589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>97.39000556970265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>251.171549224232</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>217.4251944551449</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,7 +23709,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>73.08464294440432</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.8867799311241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>150.0328618028895</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>162.5760987035359</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>8.114443973916281</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>31.24465028924007</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>66.48493815421676</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>159.645740083181</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>162.5766764427855</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>51.55114770987302</v>
       </c>
       <c r="X31" t="n">
-        <v>150.2858022951003</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>108.3383058782209</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>124.1676204716943</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>20.18346650181479</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>66.61277670055814</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>233.6139617047892</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>30.13847841900002</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>51.55114770987349</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>135.6170701033063</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>286.2494526796489</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>138.8837533533451</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>134.978262869701</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.253985870024991</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>843492.4803356668</v>
+        <v>843191.811373507</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>843492.4803356668</v>
+        <v>843191.811373507</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>700997.330747138</v>
+        <v>701541.8271506699</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>700997.3307471381</v>
+        <v>701541.8271506701</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792637.6675421898</v>
+        <v>792637.6675421897</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>792637.6675421897</v>
+        <v>792637.6675421896</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792637.6675421897</v>
+        <v>792637.6675421895</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792637.6675421896</v>
+        <v>792637.6675421897</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792637.6675421897</v>
+        <v>792637.6675421896</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700997.3307471381</v>
+        <v>701541.8271506701</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700997.3307471381</v>
+        <v>701541.82715067</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
-        <v>575755.6553459432</v>
+        <v>576109.6313926734</v>
       </c>
       <c r="F2" t="n">
-        <v>575755.6553459435</v>
+        <v>576109.6313926737</v>
       </c>
       <c r="G2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="H2" t="n">
         <v>635330.8590191732</v>
       </c>
-      <c r="H2" t="n">
-        <v>635330.8590191726</v>
-      </c>
       <c r="I2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="K2" t="n">
         <v>635330.8590191727</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="M2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="N2" t="n">
         <v>635330.8590191725</v>
       </c>
-      <c r="N2" t="n">
-        <v>635330.8590191726</v>
-      </c>
       <c r="O2" t="n">
-        <v>575755.6553459432</v>
+        <v>576109.6313926735</v>
       </c>
       <c r="P2" t="n">
-        <v>575755.6553459433</v>
+        <v>576109.6313926737</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9246.052035312925</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>611.8584928238263</v>
       </c>
       <c r="E3" t="n">
-        <v>1151969.502288325</v>
+        <v>1152397.170886355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66073.37451103007</v>
+        <v>65680.78849434041</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>6703.395469328069</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>498.5219644183622</v>
       </c>
       <c r="M3" t="n">
-        <v>230726.5169522114</v>
+        <v>231083.4646352408</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>400529.7967627071</v>
+        <v>400839.1127573195</v>
       </c>
       <c r="C4" t="n">
-        <v>400529.7967627071</v>
+        <v>400839.1127573195</v>
       </c>
       <c r="D4" t="n">
         <v>400529.7967627071</v>
       </c>
       <c r="E4" t="n">
-        <v>17966.43241296618</v>
+        <v>18091.25944199504</v>
       </c>
       <c r="F4" t="n">
-        <v>17966.43241296618</v>
+        <v>18091.25944199506</v>
       </c>
       <c r="G4" t="n">
         <v>38975.18638660161</v>
       </c>
       <c r="H4" t="n">
-        <v>38975.18638660162</v>
+        <v>38975.18638660158</v>
       </c>
       <c r="I4" t="n">
-        <v>38975.1863866016</v>
+        <v>38975.18638660158</v>
       </c>
       <c r="J4" t="n">
         <v>38975.18638660159</v>
       </c>
       <c r="K4" t="n">
-        <v>38975.18638660161</v>
+        <v>38975.18638660159</v>
       </c>
       <c r="L4" t="n">
-        <v>38975.18638660162</v>
+        <v>38975.18638660159</v>
       </c>
       <c r="M4" t="n">
-        <v>38975.18638660162</v>
+        <v>38975.18638660156</v>
       </c>
       <c r="N4" t="n">
-        <v>38975.18638660164</v>
+        <v>38975.1863866016</v>
       </c>
       <c r="O4" t="n">
-        <v>17966.43241296623</v>
+        <v>18091.25944199506</v>
       </c>
       <c r="P4" t="n">
-        <v>17966.43241296623</v>
+        <v>18091.25944199507</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35305.07353582722</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582722</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
         <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
-        <v>81726.52801247234</v>
+        <v>81813.61497387019</v>
       </c>
       <c r="F5" t="n">
-        <v>81726.52801247234</v>
+        <v>81813.61497387019</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,7 +26493,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="N5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="N5" t="n">
-        <v>96383.51825371367</v>
-      </c>
       <c r="O5" t="n">
-        <v>81726.52801247235</v>
+        <v>81813.61497387019</v>
       </c>
       <c r="P5" t="n">
-        <v>81726.52801247235</v>
+        <v>81813.61497387019</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>211752.4935575792</v>
+        <v>212223.0405834556</v>
       </c>
       <c r="C6" t="n">
-        <v>220998.5455928923</v>
+        <v>220808.9894294739</v>
       </c>
       <c r="D6" t="n">
-        <v>220998.5455928924</v>
+        <v>220386.6871000685</v>
       </c>
       <c r="E6" t="n">
-        <v>-675906.8073678203</v>
+        <v>-678715.0321751334</v>
       </c>
       <c r="F6" t="n">
-        <v>476062.6949205053</v>
+        <v>473682.1387112226</v>
       </c>
       <c r="G6" t="n">
-        <v>433898.7798678279</v>
+        <v>433619.410982259</v>
       </c>
       <c r="H6" t="n">
-        <v>499972.1543788573</v>
+        <v>499300.1994766001</v>
       </c>
       <c r="I6" t="n">
-        <v>499972.1543788577</v>
+        <v>499300.1994765998</v>
       </c>
       <c r="J6" t="n">
-        <v>492753.3898096475</v>
+        <v>492596.8040072716</v>
       </c>
       <c r="K6" t="n">
-        <v>499972.1543788575</v>
+        <v>499300.1994765995</v>
       </c>
       <c r="L6" t="n">
-        <v>499972.1543788577</v>
+        <v>498801.6775121813</v>
       </c>
       <c r="M6" t="n">
-        <v>269245.6374266458</v>
+        <v>268216.7348413588</v>
       </c>
       <c r="N6" t="n">
-        <v>499972.1543788573</v>
+        <v>499300.1994765993</v>
       </c>
       <c r="O6" t="n">
-        <v>476062.6949205046</v>
+        <v>473682.1387112222</v>
       </c>
       <c r="P6" t="n">
-        <v>476062.6949205047</v>
+        <v>473682.1387112224</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D4" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
-        <v>953.4440121634611</v>
+        <v>954.8763635022417</v>
       </c>
       <c r="F4" t="n">
-        <v>953.4440121634611</v>
+        <v>954.8763635022417</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>953.4440121634614</v>
+        <v>954.8763635022417</v>
       </c>
       <c r="P4" t="n">
-        <v>953.4440121634614</v>
+        <v>954.8763635022417</v>
       </c>
     </row>
   </sheetData>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.969734065685305</v>
       </c>
       <c r="E4" t="n">
-        <v>925.853986903145</v>
+        <v>927.2863382419256</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>241.0689184414691</v>
+        <v>239.6365671026886</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463114</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685316</v>
       </c>
       <c r="M4" t="n">
-        <v>925.853986903145</v>
+        <v>927.2863382419256</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685305</v>
       </c>
       <c r="M4" t="n">
-        <v>925.853986903145</v>
+        <v>927.2863382419256</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0689184414691</v>
+        <v>239.6365671026886</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>356.3100788776309</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>385.9414289325973</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,13 +27435,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>243.5731052242377</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9431583895512</v>
+        <v>144.7134224918944</v>
       </c>
       <c r="C3" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>109.7534919028945</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>65.09533860212863</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>123.8676101623383</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27593,19 +27593,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>263.8702699959815</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>198.119630128721</v>
+        <v>200.0893641944063</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.964362157464</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>381.2557545470806</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>338.8484382006936</v>
       </c>
       <c r="I5" t="n">
-        <v>192.7126426722623</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,10 +27660,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>124.2488267465189</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27672,7 +27672,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27700,10 +27700,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>123.8903626416102</v>
+        <v>121.8247743700079</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>132.0247892607701</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>84.64541897618032</v>
+        <v>90.41568307852349</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.56780889232699</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>117.8310227626151</v>
+        <v>125.5761362738069</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>142.3706881638279</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I7" t="n">
-        <v>127.8604496669421</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.1358939915854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>202.7033418868072</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27912,7 +27912,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>368.47469175791</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>113.788814240182</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>76.60313122961455</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27991,10 +27991,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>160.1046615565344</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>121.0254477578962</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28067,19 +28067,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>266.7956797111881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.9946280917787</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32806,10 +32806,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026447</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34465,10 +34465,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L2" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M2" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N2" t="n">
-        <v>26.47527676494983</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>26.47527676494984</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M3" t="n">
-        <v>27.59002526031614</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M5" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N5" t="n">
-        <v>26.47527676494983</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L6" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>26.47527676494983</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O8" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M9" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="N9" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="O9" t="n">
         <v>26.47527676494983</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>408.4408192289903</v>
       </c>
       <c r="L11" t="n">
-        <v>492.3127279068871</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>601.4303830943546</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>563.5273208722483</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>657.3831647810659</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>532.0150438593984</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265651</v>
@@ -36366,22 +36366,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>949.9515439201273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>566.3068505743942</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>532.4427496437942</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>684.4630967757939</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
@@ -37083,16 +37083,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>588.5617870086368</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>684.7056784113264</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>798.7564048937583</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>657.0054186073681</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>555.3017338569791</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>953.4440121634614</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
         <v>508.053000888219</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.623504535978</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38022,13 +38022,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>537.687152292067</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>625.2573349649377</v>
       </c>
       <c r="N44" t="n">
-        <v>953.4440121634614</v>
+        <v>954.8763635022417</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38113,10 +38113,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
